--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2263127.835627506</v>
+        <v>2255954.546917223</v>
       </c>
     </row>
     <row r="7">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>140.7283949888227</v>
       </c>
       <c r="G2" t="n">
-        <v>236.3626115273233</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.1099853733423</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>234.2077575344488</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>352.9083178602652</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>330.0010370174844</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464236</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464236</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>61.1733998948422</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>207.4985729390298</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5860313669139</v>
+        <v>133.9705583486983</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>11.98934863366319</v>
       </c>
       <c r="U8" t="n">
-        <v>64.59540826652895</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586807</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.5106614771179</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.5011772843723</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.84214567871175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,10 +1824,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>97.84525488987282</v>
+        <v>118.1945043170402</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.90088782653663</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>115.3768011184706</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>224.8952567231534</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.107731335945625</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>78.39617803113076</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>78.39617803113008</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3088,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>49.59767851474658</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>135.5535868730193</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.09913002577768</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.7341079359765</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="C2" t="n">
-        <v>546.7341079359765</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="D2" t="n">
-        <v>546.7341079359765</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="E2" t="n">
-        <v>267.7881344992538</v>
+        <v>179.5575145468371</v>
       </c>
       <c r="F2" t="n">
-        <v>260.8426337500503</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4342,10 +4342,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="X2" t="n">
-        <v>825.6800813726991</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.7341079359765</v>
+        <v>458.5034879835598</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.09252109618843</v>
+        <v>284.225426359828</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>641.2451212288495</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>806.3008579684607</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>806.3008579684607</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>571.1487497367179</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>571.1487497367179</v>
+        <v>868.0525623503827</v>
       </c>
       <c r="X3" t="n">
-        <v>363.2972495311851</v>
+        <v>660.2010621448499</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.5369507662312</v>
+        <v>452.440763379896</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1114.692765124614</v>
+        <v>778.9168197718677</v>
       </c>
       <c r="C5" t="n">
-        <v>1114.692765124614</v>
+        <v>409.9543028314559</v>
       </c>
       <c r="D5" t="n">
-        <v>1114.692765124614</v>
+        <v>51.68860422470541</v>
       </c>
       <c r="E5" t="n">
-        <v>781.3583842988726</v>
+        <v>51.68860422470541</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832933</v>
+        <v>44.74310347550194</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380468</v>
+        <v>57.64391735380363</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456892</v>
+        <v>220.174733845687</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039997</v>
+        <v>474.0852112039962</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494189</v>
+        <v>773.2160860494139</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635725</v>
+        <v>1062.555213635719</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293133</v>
+        <v>1290.582309293125</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935886</v>
+        <v>1447.523776935876</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.158523385694</v>
+        <v>1135.38986811557</v>
       </c>
       <c r="X5" t="n">
-        <v>1114.692765124614</v>
+        <v>1135.38986811557</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.692765124614</v>
+        <v>1135.38986811557</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.76317046771388</v>
+        <v>353.150609410092</v>
       </c>
       <c r="C6" t="n">
-        <v>29.76317046771388</v>
+        <v>178.6975801289649</v>
       </c>
       <c r="D6" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="E6" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="F6" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="G6" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782886</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="K6" t="n">
-        <v>52.67537262782886</v>
+        <v>195.5446164760262</v>
       </c>
       <c r="L6" t="n">
-        <v>111.4085491144813</v>
+        <v>479.8626256221619</v>
       </c>
       <c r="M6" t="n">
-        <v>479.7277836524406</v>
+        <v>788.0426650247541</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181904</v>
+        <v>1156.361899562711</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.36189956272</v>
+        <v>1156.361899562711</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.80870570669</v>
+        <v>1386.80870570668</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="S6" t="n">
-        <v>1319.485484785563</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="T6" t="n">
-        <v>1118.328410136611</v>
+        <v>1426.367210360591</v>
       </c>
       <c r="U6" t="n">
-        <v>890.1215957901754</v>
+        <v>1426.367210360591</v>
       </c>
       <c r="V6" t="n">
-        <v>654.9694875584328</v>
+        <v>1191.215102128848</v>
       </c>
       <c r="W6" t="n">
-        <v>445.3749694382007</v>
+        <v>936.9777454006467</v>
       </c>
       <c r="X6" t="n">
-        <v>237.5234692326678</v>
+        <v>729.1262451951138</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.76317046771388</v>
+        <v>521.36594643016</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771388</v>
+        <v>179.8798098800494</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771388</v>
+        <v>179.8798098800494</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888193</v>
+        <v>32.09990175888128</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611337</v>
+        <v>90.61654790611212</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236698</v>
+        <v>162.7032697236679</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400034</v>
+        <v>238.510546840001</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057962</v>
+        <v>292.5145415057932</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918659</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918659</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918659</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918659</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918659</v>
       </c>
       <c r="U7" t="n">
-        <v>29.76317046771388</v>
+        <v>179.8798098800494</v>
       </c>
       <c r="V7" t="n">
-        <v>29.76317046771388</v>
+        <v>179.8798098800494</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771388</v>
+        <v>179.8798098800494</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771388</v>
+        <v>179.8798098800494</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771388</v>
+        <v>179.8798098800494</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.332361886684</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="U8" t="n">
-        <v>2182.06035969704</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="V8" t="n">
-        <v>2182.06035969704</v>
+        <v>2100.213965147427</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.06035969704</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.06035969704</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.921027721229</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,28 +4886,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649889</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.192801278527</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661912</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837981</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858878</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4965,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064339</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932102</v>
+        <v>538.8019868198124</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653033</v>
+        <v>369.8658038919056</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5369,10 +5369,10 @@
         <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5250474102529</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
         <v>247.6350999123426</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>576.1735122404926</v>
+        <v>866.6138283619359</v>
       </c>
       <c r="W16" t="n">
-        <v>576.1735122404926</v>
+        <v>577.1966583249754</v>
       </c>
       <c r="X16" t="n">
-        <v>576.1735122404926</v>
+        <v>577.1966583249754</v>
       </c>
       <c r="Y16" t="n">
-        <v>576.1735122404926</v>
+        <v>577.1966583249754</v>
       </c>
     </row>
     <row r="17">
@@ -5521,13 +5521,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5603,13 +5603,13 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>692.753134944335</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>982.1703049812957</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.787631771461</v>
+        <v>692.753134944335</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.787631771461</v>
+        <v>692.753134944335</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.787631771461</v>
+        <v>692.753134944335</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5752,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4633.687647031309</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4379.003158825422</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4089.585988788462</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3861.596437890445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3640.803858746915</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6077,16 +6077,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2032.925401907737</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2312.465467126434</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2517.487947908644</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1493.756945976139</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1269.971530765645</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>980.8428919792032</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>726.1584037733163</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>436.7412337363557</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>592.8217113586352</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4119.348874704331</v>
+        <v>678.2225136306378</v>
       </c>
       <c r="C28" t="n">
-        <v>3950.412691776424</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="D28" t="n">
-        <v>3800.296052364089</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E28" t="n">
-        <v>3800.296052364089</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>3800.296052364089</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>4749.779469576118</v>
+        <v>1308.653108502425</v>
       </c>
       <c r="V28" t="n">
-        <v>4749.779469576118</v>
+        <v>1308.653108502425</v>
       </c>
       <c r="W28" t="n">
-        <v>4749.779469576118</v>
+        <v>1308.653108502425</v>
       </c>
       <c r="X28" t="n">
-        <v>4521.789918678101</v>
+        <v>1080.663557604408</v>
       </c>
       <c r="Y28" t="n">
-        <v>4300.997339534571</v>
+        <v>859.8709784608775</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6739,7 +6739,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6785,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>940.1463453738959</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3904.376443449036</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>3904.376443449036</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>3904.376443449036</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>3756.463349866643</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368732</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4437.14914771935</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4182.464659513464</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>4182.464659513464</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>3954.475108615447</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>3954.475108615447</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,13 +7253,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>940.1463453738959</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
         <v>1247.466478653857</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>302.8060739576059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>302.8060739576059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>302.8060739576059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>154.8929803752128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>154.8929803752128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>933.2366688293931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>933.2366688293931</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>705.2471179313758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>484.4545387878456</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7456,7 +7456,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7596,7 +7596,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7648,10 +7648,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7690,10 +7690,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>354.6541654994895</v>
+        <v>361.0244890520117</v>
       </c>
       <c r="N3" t="n">
         <v>111.7499598249992</v>
@@ -8294,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948386</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357532</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>142.9768779706467</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835742</v>
+        <v>389.3566915306793</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470467</v>
+        <v>437.6152809470453</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>82.43314617337722</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951791</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
-        <v>104.8749102765749</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9251,16 +9251,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15.83804904622852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.14409596997061</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>182.0340742867951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524670059</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,25 +10433,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>19.14409596997069</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>19.14409596997069</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.11429573384009</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.742507673383</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>154.2923884339552</v>
+        <v>133.9431390067878</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.9310923554007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>136.7608422053574</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>61.34209567542396</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>192.8130786476576</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>88.09739043224683</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>207.8411743674473</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.2343016671907</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166316</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44.278393308918</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>109.3944384375999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454835</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="13">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.238904999</v>
       </c>
       <c r="E2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.6836327922</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327919</v>
       </c>
       <c r="K2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="M2" t="n">
-        <v>547440.6836327924</v>
-      </c>
       <c r="N2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="O2" t="n">
         <v>547440.6836327921</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703854</v>
+        <v>106137.1517703825</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252094</v>
+        <v>316711.9424252118</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113916</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313453</v>
+        <v>24677.24609313384</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817108</v>
+        <v>76496.15793817173</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>291749.0011542653</v>
       </c>
       <c r="C4" t="n">
-        <v>261372.5469563264</v>
+        <v>261372.5469563273</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
@@ -26447,7 +26447,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26456,7 +26456,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485726</v>
+        <v>58810.42201485706</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26490,25 +26490,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105505.5167871402</v>
+        <v>105505.5167871399</v>
       </c>
       <c r="C6" t="n">
-        <v>148409.1181634296</v>
+        <v>148409.1181634318</v>
       </c>
       <c r="D6" t="n">
-        <v>9525.3506298555</v>
+        <v>9525.350629853347</v>
       </c>
       <c r="E6" t="n">
-        <v>-91881.2863796915</v>
+        <v>-92855.87763941337</v>
       </c>
       <c r="F6" t="n">
-        <v>433278.7500972048</v>
+        <v>432304.158837483</v>
       </c>
       <c r="G6" t="n">
-        <v>433278.7500972048</v>
+        <v>432304.1588374831</v>
       </c>
       <c r="H6" t="n">
-        <v>433278.7500972047</v>
+        <v>432304.1588374831</v>
       </c>
       <c r="I6" t="n">
-        <v>433278.7500972049</v>
+        <v>432304.1588374831</v>
       </c>
       <c r="J6" t="n">
-        <v>361024.0552260655</v>
+        <v>360049.463966344</v>
       </c>
       <c r="K6" t="n">
-        <v>408601.5040040702</v>
+        <v>407626.9127443492</v>
       </c>
       <c r="L6" t="n">
-        <v>356782.5921590335</v>
+        <v>355808.0008993116</v>
       </c>
       <c r="M6" t="n">
-        <v>298477.734863368</v>
+        <v>297503.1436036457</v>
       </c>
       <c r="N6" t="n">
-        <v>433278.7500972053</v>
+        <v>432304.1588374833</v>
       </c>
       <c r="O6" t="n">
-        <v>433278.7500972048</v>
+        <v>432304.1588374831</v>
       </c>
       <c r="P6" t="n">
-        <v>433278.7500972049</v>
+        <v>432304.1588374833</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593902</v>
+        <v>117.5602045593881</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26758,25 +26758,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464236</v>
+        <v>372.039630846421</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026493</v>
+        <v>82.53894384026273</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576964</v>
+        <v>260.1834596576982</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406814</v>
+        <v>95.88311714406557</v>
       </c>
       <c r="D4" t="n">
-        <v>302.247641908132</v>
+        <v>302.2476419081346</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023557</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406814</v>
+        <v>95.88311714406545</v>
       </c>
       <c r="L4" t="n">
-        <v>302.247641908132</v>
+        <v>302.2476419081347</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406814</v>
+        <v>95.88311714406557</v>
       </c>
       <c r="L4" t="n">
-        <v>302.247641908132</v>
+        <v>302.2476419081346</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
+        <v>266.1476507528888</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>178.7993369999962</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.423198276525</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>17.48722562647077</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27590,7 +27590,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>52.54455953715794</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>29.82552380321539</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>51.92933305477737</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528787</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.7905028312868</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>192.2558301280911</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385214</v>
+        <v>120.1819171385219</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409303</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281872</v>
+        <v>80.69052336281888</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129663</v>
+        <v>84.45800155129693</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>137.9721040076202</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>44.19641022188981</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358461</v>
+        <v>78.3712176435849</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322645</v>
+        <v>68.4104523632268</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255179</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
-        <v>3.721434690767921</v>
+        <v>152.3369077089835</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>204.4589717239946</v>
       </c>
       <c r="U8" t="n">
-        <v>186.6287592417603</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831828</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>6.771212764859854</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.472603837424684</v>
+        <v>0.4726038374246752</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025546</v>
+        <v>4.840054050025457</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231515</v>
+        <v>18.22005944231481</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662331</v>
+        <v>40.11165994662257</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038481019</v>
+        <v>60.11698038480908</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439588</v>
+        <v>74.5804300743945</v>
       </c>
       <c r="M5" t="n">
-        <v>82.9850985681971</v>
+        <v>82.98509856819557</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127999</v>
+        <v>84.32788422127844</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288829</v>
+        <v>79.62842981288681</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646639</v>
+        <v>67.96102257646513</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869488</v>
+        <v>51.03589764869393</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262833</v>
+        <v>29.68720080262778</v>
       </c>
       <c r="S5" t="n">
-        <v>10.769459945315</v>
+        <v>10.7694599453148</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326555</v>
+        <v>2.068823298326517</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397471</v>
+        <v>0.03780830699397401</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560469</v>
+        <v>0.2528653456560422</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941296</v>
+        <v>2.44214689094125</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596352</v>
+        <v>8.706109488596192</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182854</v>
+        <v>23.8902298718281</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078368</v>
+        <v>40.83220803078293</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483598</v>
+        <v>54.90394270483497</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486767</v>
+        <v>64.07031148486648</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827102</v>
+        <v>65.76606198270899</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106832</v>
+        <v>60.16309827106721</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496917</v>
+        <v>48.28619043496828</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128768</v>
+        <v>32.27803956128708</v>
       </c>
       <c r="R6" t="n">
-        <v>15.6998326013465</v>
+        <v>15.69983260134621</v>
       </c>
       <c r="S6" t="n">
-        <v>4.69686288970771</v>
+        <v>4.696862889707623</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359241</v>
+        <v>1.019224792359223</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0166358780036873</v>
+        <v>0.01663587800368699</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005397</v>
+        <v>0.2119938115005358</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886618</v>
+        <v>1.884817705886583</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761688</v>
+        <v>6.37523207676157</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308816</v>
+        <v>14.98796247308788</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342634</v>
+        <v>24.62982646342588</v>
       </c>
       <c r="L7" t="n">
-        <v>31.5176981207257</v>
+        <v>31.51769812072512</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094369</v>
+        <v>33.23099356094308</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898716</v>
+        <v>32.44083480898657</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736721</v>
+        <v>29.96436164736665</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275618</v>
+        <v>25.6396878927557</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846792</v>
+        <v>17.7515908884676</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651538</v>
+        <v>9.532012651651362</v>
       </c>
       <c r="S7" t="n">
-        <v>3.69447396951395</v>
+        <v>3.694473969513882</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477604</v>
+        <v>0.9057917400477437</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912036</v>
+        <v>0.01156329880912015</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>231.6067186693945</v>
+        <v>237.9770422219167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201079</v>
+        <v>28.16237059201005</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109944</v>
+        <v>164.1725419109933</v>
       </c>
       <c r="L5" t="n">
-        <v>256.475229654859</v>
+        <v>256.4752296548577</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337569</v>
+        <v>302.1523988337553</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366732</v>
+        <v>292.2617450366717</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539469</v>
+        <v>230.3303996539454</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926795</v>
+        <v>158.5267349926782</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843415007</v>
+        <v>41.04519843414913</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557068</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690025</v>
       </c>
       <c r="L6" t="n">
-        <v>59.3264408956085</v>
+        <v>287.1899082284199</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464236</v>
+        <v>311.2929690935275</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464236</v>
+        <v>372.039630846421</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033534</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605761</v>
+        <v>232.7745516605752</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111153</v>
+        <v>102.3735532111147</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543485</v>
+        <v>2.36033463754303</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104184</v>
+        <v>59.10772338104126</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278428</v>
+        <v>72.81487052278366</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821575</v>
+        <v>76.57300718821516</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140689</v>
+        <v>54.54948956140633</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764967</v>
+        <v>22.91824715764919</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>222.9314639777532</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.1571287550447</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>332.6095128747343</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782252</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>268.401800925995</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>268.401800925995</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
